--- a/Interpretacao distribuicoes.xlsx
+++ b/Interpretacao distribuicoes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leona\Dropbox\Faculdade\7° Semestre\Modelos para Taxas e Proporções\Atividades\Projeto 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leona\Documents\GitHub\trabalho__taxas_proporcoes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA3F9DB-EF8B-4BAE-B3F9-848CB5FB027A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170F88ED-6BD2-4AD1-AB95-6F2176DB3646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E3E6DA7E-24D8-471E-A62B-6D7DE6058F41}"/>
   </bookViews>
@@ -114,9 +114,6 @@
     <t>UG</t>
   </si>
   <si>
-    <t>Ugo</t>
-  </si>
-  <si>
     <t>UL</t>
   </si>
   <si>
@@ -136,6 +133,9 @@
   </si>
   <si>
     <t>BE</t>
+  </si>
+  <si>
+    <t>UGo</t>
   </si>
 </sst>
 </file>
@@ -334,7 +334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -373,47 +373,46 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -733,7 +732,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,39 +741,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="17" t="s">
+      <c r="C1" s="23"/>
+      <c r="D1" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="18" t="s">
+      <c r="E1" s="23"/>
+      <c r="F1" s="26" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="22" t="s">
+      <c r="A2" s="25"/>
+      <c r="B2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="19"/>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -792,7 +791,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -808,11 +807,11 @@
         <v>13</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="18" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -826,11 +825,11 @@
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="18" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -844,11 +843,11 @@
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -868,7 +867,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="19" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -884,11 +883,11 @@
         <v>13</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="19" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -903,12 +902,12 @@
       <c r="E9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="28" t="s">
-        <v>29</v>
+      <c r="F9" s="21" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="19" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -924,11 +923,11 @@
         <v>16</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="19" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -944,11 +943,11 @@
         <v>17</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="20" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -964,11 +963,8 @@
         <v>17</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F13" s="14"/>
+        <v>33</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">

--- a/Interpretacao distribuicoes.xlsx
+++ b/Interpretacao distribuicoes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leona\Documents\GitHub\trabalho__taxas_proporcoes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170F88ED-6BD2-4AD1-AB95-6F2176DB3646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA3C3C2-2772-4785-9D4A-4033193D59CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E3E6DA7E-24D8-471E-A62B-6D7DE6058F41}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E3E6DA7E-24D8-471E-A62B-6D7DE6058F41}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="41">
   <si>
     <t>Distribuição</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Legenda</t>
   </si>
   <si>
-    <t>Reparametrizada/regressão</t>
-  </si>
-  <si>
     <t>Forma</t>
   </si>
   <si>
@@ -84,9 +81,6 @@
     <t>Quantil</t>
   </si>
   <si>
-    <t>Suponho que sejam regressões quantílicas</t>
-  </si>
-  <si>
     <t>Média</t>
   </si>
   <si>
@@ -136,6 +130,24 @@
   </si>
   <si>
     <t>UGo</t>
+  </si>
+  <si>
+    <t>Precisão</t>
+  </si>
+  <si>
+    <t>Mediana</t>
+  </si>
+  <si>
+    <t>Dispersão</t>
+  </si>
+  <si>
+    <t>UQC</t>
+  </si>
+  <si>
+    <t>Unit Quantile Chen</t>
+  </si>
+  <si>
+    <t>Não Utilizar</t>
   </si>
 </sst>
 </file>
@@ -167,7 +179,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -176,19 +188,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,83 +336,83 @@
   </cellStyleXfs>
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -729,10 +729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFEEF90F-1345-41C1-A41F-CDB746888C5C}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,246 +741,270 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="10"/>
+      <c r="F1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="26" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="16" t="s">
+      <c r="A2" s="12"/>
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="27"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="1" t="s">
-        <v>28</v>
+      <c r="E3" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>29</v>
+      <c r="F4" s="8" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="1" t="s">
-        <v>32</v>
+      <c r="D5" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="E12" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="10" t="s">
+      <c r="D13" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="F13" s="21" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="8"/>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="27"/>
+      <c r="C17" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Interpretacao distribuicoes.xlsx
+++ b/Interpretacao distribuicoes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leona\Documents\GitHub\trabalho__taxas_proporcoes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA3C3C2-2772-4785-9D4A-4033193D59CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603191EE-5D70-45C2-BF60-29BDE260BD56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E3E6DA7E-24D8-471E-A62B-6D7DE6058F41}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E3E6DA7E-24D8-471E-A62B-6D7DE6058F41}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="42">
   <si>
     <t>Distribuição</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>Não Utilizar</t>
+  </si>
+  <si>
+    <t>Melhores / Obrigatórias</t>
   </si>
 </sst>
 </file>
@@ -179,7 +182,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -204,6 +207,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -334,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -358,6 +367,24 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -376,43 +403,37 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -732,7 +753,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,23 +762,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="9" t="s">
+      <c r="C1" s="16"/>
+      <c r="D1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="13" t="s">
+      <c r="E1" s="16"/>
+      <c r="F1" s="19" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
+      <c r="A2" s="18"/>
       <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
@@ -770,42 +791,42 @@
       <c r="E2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="14"/>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="23" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="11" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="8" t="s">
@@ -813,19 +834,19 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="11" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="8" t="s">
@@ -833,30 +854,30 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="23" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -868,44 +889,44 @@
       <c r="E7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="23" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="11" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="8" t="s">
@@ -913,19 +934,19 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F10" s="8" t="s">
@@ -933,10 +954,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -948,47 +969,47 @@
       <c r="E11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="23" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="29" t="s">
         <v>31</v>
       </c>
     </row>
@@ -998,12 +1019,14 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="14" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
+      <c r="A17" s="21" t="s">
+        <v>41</v>
+      </c>
       <c r="C17" s="2"/>
     </row>
   </sheetData>

--- a/Interpretacao distribuicoes.xlsx
+++ b/Interpretacao distribuicoes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leona\Documents\GitHub\trabalho__taxas_proporcoes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603191EE-5D70-45C2-BF60-29BDE260BD56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CA60C9-C44C-4111-80E8-385D21585F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E3E6DA7E-24D8-471E-A62B-6D7DE6058F41}"/>
   </bookViews>
@@ -343,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -385,6 +385,36 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -401,39 +431,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -753,7 +750,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A8" activeCellId="5" sqref="A3 A5 A6 A12 A13 A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,23 +759,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="15" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="19" t="s">
+      <c r="E1" s="26"/>
+      <c r="F1" s="29" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
+      <c r="A2" s="28"/>
       <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
@@ -791,25 +788,25 @@
       <c r="E2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="20"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="17" t="s">
         <v>26</v>
       </c>
     </row>
@@ -834,42 +831,42 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="17" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="17" t="s">
         <v>28</v>
       </c>
     </row>
@@ -894,22 +891,22 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="17" t="s">
         <v>38</v>
       </c>
     </row>
@@ -974,42 +971,42 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="17" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="22" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1024,7 +1021,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="15" t="s">
         <v>41</v>
       </c>
       <c r="C17" s="2"/>
